--- a/MLStudio/data/reference/metrics.xlsx
+++ b/MLStudio/data/reference/metrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38370" windowHeight="4560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38370" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="binary" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">map!$A$1:$D$310</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">multiclass!$A$1:$AG$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">multiclass!$A$1:$AG$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">regression!$B$1:$T$72</definedName>
     <definedName name="binary">binary!$E:$G</definedName>
     <definedName name="LU">#REF!</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4634" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4717" uniqueCount="837">
   <si>
     <t>name</t>
   </si>
@@ -2516,6 +2516,39 @@
   </si>
   <si>
     <t>R2()</t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>PositivePredictiveValue()</t>
+  </si>
+  <si>
+    <t>Average Precision</t>
+  </si>
+  <si>
+    <t>SENS</t>
+  </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>Sensitivity()</t>
+  </si>
+  <si>
+    <t>Sensitivity (Recall/True Positive Rate)</t>
+  </si>
+  <si>
+    <t>REC</t>
+  </si>
+  <si>
+    <t>true_positive_raate</t>
+  </si>
+  <si>
+    <t>True Positive Rate</t>
+  </si>
+  <si>
+    <t>PREC</t>
   </si>
 </sst>
 </file>
@@ -2837,11 +2870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4174,7 +4207,7 @@
         <v>219</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>836</v>
       </c>
       <c r="F16" t="s">
         <v>183</v>
@@ -4252,7 +4285,7 @@
         <v>326</v>
       </c>
       <c r="AG16">
-        <f t="shared" ref="AG16:AG25" si="1">COUNTIF(N16:AF16,"X")</f>
+        <f t="shared" ref="AG16:AG27" si="1">COUNTIF(N16:AF16,"X")</f>
         <v>3</v>
       </c>
     </row>
@@ -4369,13 +4402,13 @@
         <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>834</v>
       </c>
       <c r="G18" t="s">
-        <v>775</v>
+        <v>835</v>
       </c>
       <c r="H18" t="s">
-        <v>371</v>
+        <v>835</v>
       </c>
       <c r="I18" t="s">
         <v>74</v>
@@ -4450,86 +4483,92 @@
         <v>210</v>
       </c>
       <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" t="s">
+        <v>833</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>775</v>
+      </c>
+      <c r="H19" t="s">
+        <v>371</v>
+      </c>
+      <c r="I19" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N19" t="s">
+        <v>326</v>
+      </c>
+      <c r="O19" t="s">
+        <v>326</v>
+      </c>
+      <c r="P19" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>326</v>
+      </c>
+      <c r="R19" t="s">
+        <v>326</v>
+      </c>
+      <c r="S19" t="s">
+        <v>326</v>
+      </c>
+      <c r="T19" t="s">
+        <v>290</v>
+      </c>
+      <c r="U19" t="s">
+        <v>326</v>
+      </c>
+      <c r="V19" t="s">
+        <v>326</v>
+      </c>
+      <c r="X19" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" ref="AG19" si="2">COUNTIF(N19:AF19,"X")</f>
         <v>3</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>789</v>
-      </c>
-      <c r="H19" t="s">
-        <v>237</v>
-      </c>
-      <c r="I19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" t="s">
-        <v>326</v>
-      </c>
-      <c r="O19" t="s">
-        <v>290</v>
-      </c>
-      <c r="P19" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>326</v>
-      </c>
-      <c r="R19" t="s">
-        <v>326</v>
-      </c>
-      <c r="S19" t="s">
-        <v>326</v>
-      </c>
-      <c r="T19" t="s">
-        <v>326</v>
-      </c>
-      <c r="U19" t="s">
-        <v>326</v>
-      </c>
-      <c r="V19" t="s">
-        <v>326</v>
-      </c>
-      <c r="X19" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG19">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
@@ -4537,31 +4576,34 @@
         <v>210</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>829</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>830</v>
       </c>
       <c r="G20" t="s">
-        <v>787</v>
+        <v>831</v>
       </c>
       <c r="H20" t="s">
-        <v>229</v>
+        <v>832</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>75</v>
+      </c>
+      <c r="L20" t="s">
+        <v>221</v>
       </c>
       <c r="N20" t="s">
         <v>326</v>
@@ -4570,20 +4612,20 @@
         <v>326</v>
       </c>
       <c r="P20" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>326</v>
+      </c>
+      <c r="R20" t="s">
+        <v>326</v>
+      </c>
+      <c r="S20" t="s">
+        <v>326</v>
+      </c>
+      <c r="T20" t="s">
         <v>290</v>
       </c>
-      <c r="Q20" t="s">
-        <v>326</v>
-      </c>
-      <c r="R20" t="s">
-        <v>326</v>
-      </c>
-      <c r="S20" t="s">
-        <v>326</v>
-      </c>
-      <c r="T20" t="s">
-        <v>326</v>
-      </c>
       <c r="U20" t="s">
         <v>326</v>
       </c>
@@ -4600,7 +4642,7 @@
         <v>326</v>
       </c>
       <c r="AA20" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="AB20" t="s">
         <v>326</v>
@@ -4610,13 +4652,16 @@
       </c>
       <c r="AD20" t="s">
         <v>326</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>290</v>
       </c>
       <c r="AF20" t="s">
         <v>326</v>
       </c>
       <c r="AG20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
@@ -4627,34 +4672,34 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
         <v>217</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="H21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N21" t="s">
         <v>326</v>
       </c>
       <c r="O21" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="P21" t="s">
         <v>326</v>
@@ -4684,7 +4729,7 @@
         <v>326</v>
       </c>
       <c r="Z21" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="AA21" t="s">
         <v>326</v>
@@ -4714,28 +4759,28 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>217</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H22" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N22" t="s">
         <v>326</v>
@@ -4744,7 +4789,7 @@
         <v>326</v>
       </c>
       <c r="P22" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="Q22" t="s">
         <v>326</v>
@@ -4771,7 +4816,7 @@
         <v>326</v>
       </c>
       <c r="Z22" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="AA22" t="s">
         <v>326</v>
@@ -4801,28 +4846,28 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
         <v>217</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H23" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="I23" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N23" t="s">
         <v>326</v>
@@ -4831,34 +4876,34 @@
         <v>326</v>
       </c>
       <c r="P23" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>326</v>
+      </c>
+      <c r="R23" t="s">
+        <v>326</v>
+      </c>
+      <c r="S23" t="s">
+        <v>326</v>
+      </c>
+      <c r="T23" t="s">
+        <v>326</v>
+      </c>
+      <c r="U23" t="s">
+        <v>326</v>
+      </c>
+      <c r="V23" t="s">
+        <v>326</v>
+      </c>
+      <c r="X23" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z23" t="s">
         <v>290</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>326</v>
-      </c>
-      <c r="R23" t="s">
-        <v>326</v>
-      </c>
-      <c r="S23" t="s">
-        <v>326</v>
-      </c>
-      <c r="T23" t="s">
-        <v>326</v>
-      </c>
-      <c r="U23" t="s">
-        <v>326</v>
-      </c>
-      <c r="V23" t="s">
-        <v>326</v>
-      </c>
-      <c r="X23" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>326</v>
       </c>
       <c r="AA23" t="s">
         <v>326</v>
@@ -4888,28 +4933,28 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>217</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="H24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N24" t="s">
         <v>326</v>
@@ -4924,28 +4969,28 @@
         <v>326</v>
       </c>
       <c r="R24" t="s">
+        <v>326</v>
+      </c>
+      <c r="S24" t="s">
+        <v>326</v>
+      </c>
+      <c r="T24" t="s">
+        <v>326</v>
+      </c>
+      <c r="U24" t="s">
+        <v>326</v>
+      </c>
+      <c r="V24" t="s">
+        <v>326</v>
+      </c>
+      <c r="X24" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z24" t="s">
         <v>290</v>
-      </c>
-      <c r="S24" t="s">
-        <v>326</v>
-      </c>
-      <c r="T24" t="s">
-        <v>326</v>
-      </c>
-      <c r="U24" t="s">
-        <v>326</v>
-      </c>
-      <c r="V24" t="s">
-        <v>326</v>
-      </c>
-      <c r="X24" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>326</v>
       </c>
       <c r="AA24" t="s">
         <v>326</v>
@@ -4975,37 +5020,37 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>217</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="H25" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I25" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="K25" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N25" t="s">
         <v>326</v>
       </c>
       <c r="O25" t="s">
+        <v>326</v>
+      </c>
+      <c r="P25" t="s">
         <v>290</v>
-      </c>
-      <c r="P25" t="s">
-        <v>326</v>
       </c>
       <c r="Q25" t="s">
         <v>326</v>
@@ -5059,40 +5104,86 @@
         <v>210</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E26" t="s">
-        <v>374</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>375</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>819</v>
+        <v>790</v>
       </c>
       <c r="H26" t="s">
-        <v>376</v>
+        <v>238</v>
       </c>
       <c r="I26" t="s">
-        <v>377</v>
+        <v>41</v>
       </c>
       <c r="K26" t="s">
-        <v>378</v>
-      </c>
-      <c r="M26" t="s">
-        <v>180</v>
-      </c>
-      <c r="W26" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" t="s">
+        <v>326</v>
+      </c>
+      <c r="O26" t="s">
+        <v>326</v>
+      </c>
+      <c r="P26" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>326</v>
+      </c>
+      <c r="R26" t="s">
         <v>290</v>
       </c>
-      <c r="AE26" t="s">
-        <v>290</v>
+      <c r="S26" t="s">
+        <v>326</v>
+      </c>
+      <c r="T26" t="s">
+        <v>326</v>
+      </c>
+      <c r="U26" t="s">
+        <v>326</v>
+      </c>
+      <c r="V26" t="s">
+        <v>326</v>
+      </c>
+      <c r="X26" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -5100,41 +5191,38 @@
         <v>210</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>335</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="H27" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="I27" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="K27" t="s">
-        <v>167</v>
-      </c>
-      <c r="M27" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="N27" t="s">
+        <v>326</v>
+      </c>
+      <c r="O27" t="s">
         <v>290</v>
       </c>
-      <c r="O27" t="s">
-        <v>326</v>
-      </c>
       <c r="P27" t="s">
         <v>326</v>
       </c>
@@ -5156,9 +5244,6 @@
       <c r="V27" t="s">
         <v>326</v>
       </c>
-      <c r="W27" t="s">
-        <v>290</v>
-      </c>
       <c r="X27" t="s">
         <v>326</v>
       </c>
@@ -5184,8 +5269,8 @@
         <v>326</v>
       </c>
       <c r="AG27">
-        <f t="shared" ref="AG27:AG33" si="2">COUNTIF(N27:AF27,"X")</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -5196,86 +5281,37 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>169</v>
+        <v>374</v>
       </c>
       <c r="F28" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="G28" t="s">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="H28" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I28" t="s">
-        <v>171</v>
+        <v>377</v>
       </c>
       <c r="K28" t="s">
-        <v>172</v>
+        <v>378</v>
       </c>
       <c r="M28" t="s">
-        <v>181</v>
-      </c>
-      <c r="N28" t="s">
-        <v>326</v>
-      </c>
-      <c r="O28" t="s">
-        <v>326</v>
-      </c>
-      <c r="P28" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>326</v>
-      </c>
-      <c r="R28" t="s">
-        <v>326</v>
-      </c>
-      <c r="S28" t="s">
-        <v>326</v>
-      </c>
-      <c r="T28" t="s">
-        <v>326</v>
-      </c>
-      <c r="U28" t="s">
-        <v>326</v>
-      </c>
-      <c r="V28" t="s">
-        <v>326</v>
-      </c>
-      <c r="X28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W28" t="s">
         <v>290</v>
       </c>
-      <c r="Y28" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG28">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="AE28" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -5286,34 +5322,34 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>224</v>
       </c>
       <c r="E29" t="s">
-        <v>414</v>
+        <v>144</v>
       </c>
       <c r="F29" t="s">
-        <v>692</v>
+        <v>335</v>
       </c>
       <c r="G29" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H29" t="s">
-        <v>693</v>
+        <v>248</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="K29" t="s">
-        <v>694</v>
+        <v>167</v>
       </c>
       <c r="M29" t="s">
         <v>181</v>
       </c>
       <c r="N29" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="O29" t="s">
         <v>326</v>
@@ -5337,6 +5373,9 @@
         <v>326</v>
       </c>
       <c r="V29" t="s">
+        <v>326</v>
+      </c>
+      <c r="W29" t="s">
         <v>290</v>
       </c>
       <c r="X29" t="s">
@@ -5364,8 +5403,8 @@
         <v>326</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" ref="AG29:AG35" si="3">COUNTIF(N29:AF29,"X")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
@@ -5376,28 +5415,28 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>224</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H30" t="s">
-        <v>152</v>
+        <v>301</v>
       </c>
       <c r="I30" t="s">
-        <v>369</v>
+        <v>171</v>
       </c>
       <c r="K30" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="M30" t="s">
         <v>181</v>
@@ -5427,11 +5466,11 @@
         <v>326</v>
       </c>
       <c r="V30" t="s">
+        <v>326</v>
+      </c>
+      <c r="X30" t="s">
         <v>290</v>
       </c>
-      <c r="X30" t="s">
-        <v>326</v>
-      </c>
       <c r="Y30" t="s">
         <v>326</v>
       </c>
@@ -5454,7 +5493,7 @@
         <v>326</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5466,28 +5505,28 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>224</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>414</v>
       </c>
       <c r="F31" t="s">
-        <v>331</v>
+        <v>692</v>
       </c>
       <c r="G31" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H31" t="s">
-        <v>160</v>
+        <v>693</v>
       </c>
       <c r="I31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K31" t="s">
-        <v>160</v>
+        <v>694</v>
       </c>
       <c r="M31" t="s">
         <v>181</v>
@@ -5544,7 +5583,7 @@
         <v>326</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5556,25 +5595,28 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
         <v>224</v>
       </c>
       <c r="E32" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="F32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G32" t="s">
-        <v>823</v>
+        <v>795</v>
       </c>
       <c r="H32" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="I32" t="s">
-        <v>163</v>
+        <v>369</v>
+      </c>
+      <c r="K32" t="s">
+        <v>154</v>
       </c>
       <c r="M32" t="s">
         <v>181</v>
@@ -5631,7 +5673,7 @@
         <v>326</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5643,62 +5685,59 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
         <v>224</v>
       </c>
       <c r="E33" t="s">
-        <v>356</v>
+        <v>159</v>
       </c>
       <c r="F33" t="s">
-        <v>412</v>
+        <v>331</v>
       </c>
       <c r="G33" t="s">
-        <v>820</v>
+        <v>796</v>
       </c>
       <c r="H33" t="s">
-        <v>413</v>
+        <v>160</v>
       </c>
       <c r="I33" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K33" t="s">
-        <v>167</v>
-      </c>
-      <c r="L33" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M33" t="s">
         <v>181</v>
       </c>
       <c r="N33" t="s">
+        <v>326</v>
+      </c>
+      <c r="O33" t="s">
+        <v>326</v>
+      </c>
+      <c r="P33" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>326</v>
+      </c>
+      <c r="R33" t="s">
+        <v>326</v>
+      </c>
+      <c r="S33" t="s">
+        <v>326</v>
+      </c>
+      <c r="T33" t="s">
+        <v>326</v>
+      </c>
+      <c r="U33" t="s">
+        <v>326</v>
+      </c>
+      <c r="V33" t="s">
         <v>290</v>
       </c>
-      <c r="O33" t="s">
-        <v>326</v>
-      </c>
-      <c r="P33" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>326</v>
-      </c>
-      <c r="R33" t="s">
-        <v>326</v>
-      </c>
-      <c r="S33" t="s">
-        <v>326</v>
-      </c>
-      <c r="T33" t="s">
-        <v>326</v>
-      </c>
-      <c r="U33" t="s">
-        <v>326</v>
-      </c>
-      <c r="V33" t="s">
-        <v>326</v>
-      </c>
       <c r="X33" t="s">
         <v>326</v>
       </c>
@@ -5724,7 +5763,7 @@
         <v>326</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5736,34 +5775,83 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
         <v>224</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="F34" t="s">
-        <v>191</v>
+        <v>332</v>
       </c>
       <c r="G34" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="H34" t="s">
-        <v>357</v>
+        <v>162</v>
       </c>
       <c r="I34" t="s">
-        <v>358</v>
-      </c>
-      <c r="K34" t="s">
-        <v>359</v>
+        <v>163</v>
       </c>
       <c r="M34" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N34" t="s">
+        <v>326</v>
+      </c>
+      <c r="O34" t="s">
+        <v>326</v>
+      </c>
+      <c r="P34" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>326</v>
+      </c>
+      <c r="R34" t="s">
+        <v>326</v>
+      </c>
+      <c r="S34" t="s">
+        <v>326</v>
+      </c>
+      <c r="T34" t="s">
+        <v>326</v>
+      </c>
+      <c r="U34" t="s">
+        <v>326</v>
+      </c>
+      <c r="V34" t="s">
         <v>290</v>
+      </c>
+      <c r="X34" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
@@ -5774,34 +5862,37 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
         <v>224</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>356</v>
       </c>
       <c r="F35" t="s">
-        <v>334</v>
+        <v>412</v>
       </c>
       <c r="G35" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="H35" t="s">
-        <v>293</v>
+        <v>413</v>
       </c>
       <c r="I35" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="K35" t="s">
-        <v>117</v>
+        <v>167</v>
+      </c>
+      <c r="L35" t="s">
+        <v>168</v>
       </c>
       <c r="M35" t="s">
         <v>181</v>
       </c>
       <c r="N35" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s">
         <v>326</v>
@@ -5846,13 +5937,13 @@
         <v>326</v>
       </c>
       <c r="AD35" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="AF35" t="s">
         <v>326</v>
       </c>
       <c r="AG35">
-        <f>COUNTIF(N35:AF35,"X")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5864,37 +5955,31 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>224</v>
       </c>
       <c r="E36" t="s">
-        <v>384</v>
+        <v>147</v>
       </c>
       <c r="F36" t="s">
-        <v>385</v>
+        <v>191</v>
       </c>
       <c r="G36" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
       <c r="H36" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="I36" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="K36" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="M36" t="s">
         <v>180</v>
-      </c>
-      <c r="N36" t="s">
-        <v>290</v>
-      </c>
-      <c r="W36" t="s">
-        <v>290</v>
       </c>
       <c r="AE36" t="s">
         <v>290</v>
@@ -5908,31 +5993,28 @@
         <v>4</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>112</v>
+        <v>334</v>
       </c>
       <c r="G37" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="H37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K37" t="s">
-        <v>119</v>
-      </c>
-      <c r="L37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M37" t="s">
         <v>181</v>
@@ -6001,28 +6083,28 @@
         <v>4</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
         <v>224</v>
       </c>
       <c r="E38" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F38" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G38" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H38" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I38" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K38" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M38" t="s">
         <v>180</v>
@@ -6042,34 +6124,37 @@
         <v>210</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="G39" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="H39" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="K39" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="L39" t="s">
-        <v>69</v>
+        <v>118</v>
+      </c>
+      <c r="M39" t="s">
+        <v>181</v>
       </c>
       <c r="N39" t="s">
         <v>326</v>
@@ -6114,16 +6199,16 @@
         <v>326</v>
       </c>
       <c r="AC39" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD39" t="s">
         <v>290</v>
       </c>
-      <c r="AD39" t="s">
-        <v>326</v>
-      </c>
       <c r="AF39" t="s">
         <v>326</v>
       </c>
       <c r="AG39">
-        <f t="shared" ref="AG39:AG47" si="3">COUNTIF(N39:AF39,"X")</f>
+        <f>COUNTIF(N39:AF39,"X")</f>
         <v>1</v>
       </c>
     </row>
@@ -6132,92 +6217,43 @@
         <v>210</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>379</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>380</v>
       </c>
       <c r="G40" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="H40" t="s">
-        <v>300</v>
+        <v>381</v>
       </c>
       <c r="I40" t="s">
-        <v>90</v>
+        <v>382</v>
       </c>
       <c r="K40" t="s">
-        <v>91</v>
-      </c>
-      <c r="L40" t="s">
-        <v>88</v>
+        <v>383</v>
       </c>
       <c r="M40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N40" t="s">
-        <v>326</v>
-      </c>
-      <c r="O40" t="s">
-        <v>326</v>
-      </c>
-      <c r="P40" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>326</v>
-      </c>
-      <c r="R40" t="s">
-        <v>326</v>
-      </c>
-      <c r="S40" t="s">
-        <v>326</v>
-      </c>
-      <c r="T40" t="s">
-        <v>326</v>
-      </c>
-      <c r="U40" t="s">
-        <v>326</v>
-      </c>
-      <c r="V40" t="s">
-        <v>326</v>
-      </c>
-      <c r="X40" t="s">
         <v>290</v>
       </c>
-      <c r="Y40" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG40">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="W40" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
@@ -6228,28 +6264,31 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
         <v>218</v>
       </c>
       <c r="E41" t="s">
-        <v>309</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
-        <v>337</v>
+        <v>65</v>
       </c>
       <c r="G41" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="H41" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="I41" t="s">
-        <v>313</v>
-      </c>
-      <c r="M41" t="s">
-        <v>311</v>
+        <v>66</v>
+      </c>
+      <c r="K41" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" t="s">
+        <v>69</v>
       </c>
       <c r="N41" t="s">
         <v>326</v>
@@ -6282,20 +6321,20 @@
         <v>326</v>
       </c>
       <c r="Y41" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC41" t="s">
         <v>290</v>
       </c>
-      <c r="Z41" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>326</v>
-      </c>
       <c r="AD41" t="s">
         <v>326</v>
       </c>
@@ -6303,7 +6342,7 @@
         <v>326</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AG41:AG49" si="4">COUNTIF(N41:AF41,"X")</f>
         <v>1</v>
       </c>
     </row>
@@ -6315,28 +6354,31 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
         <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>304</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>339</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H42" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="I42" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s">
-        <v>98</v>
+        <v>91</v>
+      </c>
+      <c r="L42" t="s">
+        <v>88</v>
       </c>
       <c r="M42" t="s">
         <v>181</v>
@@ -6369,10 +6411,10 @@
         <v>326</v>
       </c>
       <c r="X42" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="Y42" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="Z42" t="s">
         <v>326</v>
@@ -6393,7 +6435,7 @@
         <v>326</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6405,25 +6447,25 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
         <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G43" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M43" t="s">
         <v>311</v>
@@ -6480,7 +6522,7 @@
         <v>326</v>
       </c>
       <c r="AG43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6492,25 +6534,25 @@
         <v>5</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
         <v>218</v>
       </c>
       <c r="E44" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G44" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="H44" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I44" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K44" t="s">
         <v>98</v>
@@ -6570,7 +6612,7 @@
         <v>326</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6582,31 +6624,28 @@
         <v>5</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
         <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>310</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>338</v>
       </c>
       <c r="G45" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="H45" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
-      </c>
-      <c r="K45" t="s">
-        <v>67</v>
-      </c>
-      <c r="L45" t="s">
-        <v>70</v>
+        <v>312</v>
+      </c>
+      <c r="M45" t="s">
+        <v>311</v>
       </c>
       <c r="N45" t="s">
         <v>326</v>
@@ -6639,7 +6678,7 @@
         <v>326</v>
       </c>
       <c r="Y45" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="Z45" t="s">
         <v>326</v>
@@ -6651,7 +6690,7 @@
         <v>326</v>
       </c>
       <c r="AC45" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="AD45" t="s">
         <v>326</v>
@@ -6660,7 +6699,7 @@
         <v>326</v>
       </c>
       <c r="AG45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6672,28 +6711,31 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
         <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
+        <v>340</v>
       </c>
       <c r="G46" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H46" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="I46" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s">
-        <v>54</v>
+        <v>98</v>
+      </c>
+      <c r="M46" t="s">
+        <v>181</v>
       </c>
       <c r="N46" t="s">
         <v>326</v>
@@ -6708,26 +6750,26 @@
         <v>326</v>
       </c>
       <c r="R46" t="s">
+        <v>326</v>
+      </c>
+      <c r="S46" t="s">
+        <v>326</v>
+      </c>
+      <c r="T46" t="s">
+        <v>326</v>
+      </c>
+      <c r="U46" t="s">
+        <v>326</v>
+      </c>
+      <c r="V46" t="s">
+        <v>326</v>
+      </c>
+      <c r="X46" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y46" t="s">
         <v>290</v>
       </c>
-      <c r="S46" t="s">
-        <v>326</v>
-      </c>
-      <c r="T46" t="s">
-        <v>326</v>
-      </c>
-      <c r="U46" t="s">
-        <v>326</v>
-      </c>
-      <c r="V46" t="s">
-        <v>326</v>
-      </c>
-      <c r="X46" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>326</v>
-      </c>
       <c r="Z46" t="s">
         <v>326</v>
       </c>
@@ -6747,7 +6789,7 @@
         <v>326</v>
       </c>
       <c r="AG46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6756,71 +6798,80 @@
         <v>210</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E47" t="s">
-        <v>278</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>342</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="H47" t="s">
-        <v>279</v>
+        <v>298</v>
+      </c>
+      <c r="I47" t="s">
+        <v>49</v>
+      </c>
+      <c r="K47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L47" t="s">
+        <v>70</v>
       </c>
       <c r="N47" t="s">
+        <v>326</v>
+      </c>
+      <c r="O47" t="s">
+        <v>326</v>
+      </c>
+      <c r="P47" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>326</v>
+      </c>
+      <c r="R47" t="s">
+        <v>326</v>
+      </c>
+      <c r="S47" t="s">
+        <v>326</v>
+      </c>
+      <c r="T47" t="s">
+        <v>326</v>
+      </c>
+      <c r="U47" t="s">
+        <v>326</v>
+      </c>
+      <c r="V47" t="s">
+        <v>326</v>
+      </c>
+      <c r="X47" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC47" t="s">
         <v>290</v>
       </c>
-      <c r="O47" t="s">
-        <v>326</v>
-      </c>
-      <c r="P47" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>326</v>
-      </c>
-      <c r="R47" t="s">
-        <v>326</v>
-      </c>
-      <c r="S47" t="s">
-        <v>326</v>
-      </c>
-      <c r="T47" t="s">
-        <v>326</v>
-      </c>
-      <c r="U47" t="s">
-        <v>326</v>
-      </c>
-      <c r="V47" t="s">
-        <v>326</v>
-      </c>
-      <c r="X47" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>326</v>
-      </c>
       <c r="AD47" t="s">
         <v>326</v>
       </c>
@@ -6828,34 +6879,95 @@
         <v>326</v>
       </c>
       <c r="AG47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>688</v>
+        <v>210</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E48" t="s">
-        <v>406</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>407</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="H48" t="s">
-        <v>408</v>
+        <v>239</v>
+      </c>
+      <c r="I48" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" t="s">
+        <v>54</v>
+      </c>
+      <c r="N48" t="s">
+        <v>326</v>
+      </c>
+      <c r="O48" t="s">
+        <v>326</v>
+      </c>
+      <c r="P48" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>326</v>
+      </c>
+      <c r="R48" t="s">
+        <v>290</v>
+      </c>
+      <c r="S48" t="s">
+        <v>326</v>
+      </c>
+      <c r="T48" t="s">
+        <v>326</v>
+      </c>
+      <c r="U48" t="s">
+        <v>326</v>
+      </c>
+      <c r="V48" t="s">
+        <v>326</v>
+      </c>
+      <c r="X48" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
@@ -6866,31 +6978,22 @@
         <v>6</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
         <v>226</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="F49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G49" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H49" t="s">
-        <v>251</v>
-      </c>
-      <c r="I49" t="s">
-        <v>166</v>
-      </c>
-      <c r="K49" t="s">
-        <v>173</v>
-      </c>
-      <c r="M49" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="N49" t="s">
         <v>290</v>
@@ -6944,98 +7047,34 @@
         <v>326</v>
       </c>
       <c r="AG49">
-        <f>COUNTIF(N49:AF49,"X")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>210</v>
+        <v>688</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>406</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>407</v>
       </c>
       <c r="G50" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="H50" t="s">
-        <v>250</v>
-      </c>
-      <c r="I50" t="s">
-        <v>105</v>
-      </c>
-      <c r="K50" t="s">
-        <v>106</v>
-      </c>
-      <c r="M50" t="s">
-        <v>181</v>
-      </c>
-      <c r="N50" t="s">
-        <v>326</v>
-      </c>
-      <c r="O50" t="s">
-        <v>326</v>
-      </c>
-      <c r="P50" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>326</v>
-      </c>
-      <c r="R50" t="s">
-        <v>326</v>
-      </c>
-      <c r="S50" t="s">
-        <v>326</v>
-      </c>
-      <c r="T50" t="s">
-        <v>326</v>
-      </c>
-      <c r="U50" t="s">
-        <v>290</v>
-      </c>
-      <c r="V50" t="s">
-        <v>326</v>
-      </c>
-      <c r="X50" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG50">
-        <f>COUNTIF(N50:AF50,"X")</f>
-        <v>1</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
@@ -7043,37 +7082,37 @@
         <v>210</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="F51" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G51" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="H51" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I51" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="K51" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="M51" t="s">
         <v>181</v>
       </c>
       <c r="N51" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="O51" t="s">
         <v>326</v>
@@ -7094,7 +7133,7 @@
         <v>326</v>
       </c>
       <c r="U51" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="V51" t="s">
         <v>326</v>
@@ -7133,31 +7172,34 @@
         <v>210</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="E52" t="s">
-        <v>318</v>
+        <v>103</v>
       </c>
       <c r="F52" t="s">
-        <v>344</v>
+        <v>104</v>
       </c>
       <c r="G52" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H52" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="I52" t="s">
-        <v>320</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s">
-        <v>319</v>
+        <v>106</v>
+      </c>
+      <c r="M52" t="s">
+        <v>181</v>
       </c>
       <c r="N52" t="s">
         <v>326</v>
@@ -7181,7 +7223,7 @@
         <v>326</v>
       </c>
       <c r="U52" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="V52" t="s">
         <v>326</v>
@@ -7212,6 +7254,183 @@
       </c>
       <c r="AG52">
         <f>COUNTIF(N52:AF52,"X")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" t="s">
+        <v>343</v>
+      </c>
+      <c r="G53" t="s">
+        <v>815</v>
+      </c>
+      <c r="H53" t="s">
+        <v>249</v>
+      </c>
+      <c r="I53" t="s">
+        <v>102</v>
+      </c>
+      <c r="K53" t="s">
+        <v>100</v>
+      </c>
+      <c r="M53" t="s">
+        <v>181</v>
+      </c>
+      <c r="N53" t="s">
+        <v>326</v>
+      </c>
+      <c r="O53" t="s">
+        <v>326</v>
+      </c>
+      <c r="P53" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>326</v>
+      </c>
+      <c r="R53" t="s">
+        <v>326</v>
+      </c>
+      <c r="S53" t="s">
+        <v>326</v>
+      </c>
+      <c r="T53" t="s">
+        <v>326</v>
+      </c>
+      <c r="U53" t="s">
+        <v>290</v>
+      </c>
+      <c r="V53" t="s">
+        <v>326</v>
+      </c>
+      <c r="X53" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG53">
+        <f>COUNTIF(N53:AF53,"X")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>316</v>
+      </c>
+      <c r="E54" t="s">
+        <v>318</v>
+      </c>
+      <c r="F54" t="s">
+        <v>344</v>
+      </c>
+      <c r="G54" t="s">
+        <v>817</v>
+      </c>
+      <c r="H54" t="s">
+        <v>317</v>
+      </c>
+      <c r="I54" t="s">
+        <v>320</v>
+      </c>
+      <c r="K54" t="s">
+        <v>319</v>
+      </c>
+      <c r="N54" t="s">
+        <v>326</v>
+      </c>
+      <c r="O54" t="s">
+        <v>326</v>
+      </c>
+      <c r="P54" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>326</v>
+      </c>
+      <c r="R54" t="s">
+        <v>326</v>
+      </c>
+      <c r="S54" t="s">
+        <v>326</v>
+      </c>
+      <c r="T54" t="s">
+        <v>326</v>
+      </c>
+      <c r="U54" t="s">
+        <v>326</v>
+      </c>
+      <c r="V54" t="s">
+        <v>326</v>
+      </c>
+      <c r="X54" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG54">
+        <f>COUNTIF(N54:AF54,"X")</f>
         <v>0</v>
       </c>
     </row>
@@ -7227,10 +7446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A52"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7433,7 +7652,7 @@
         <v>326</v>
       </c>
       <c r="AG2">
-        <f t="shared" ref="AG2:AG29" si="0">COUNTIF(N2:AF2,"X")</f>
+        <f t="shared" ref="AG2:AG30" si="0">COUNTIF(N2:AF2,"X")</f>
         <v>1</v>
       </c>
     </row>
@@ -8570,10 +8789,10 @@
         <v>124</v>
       </c>
       <c r="F15" t="s">
-        <v>348</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>773</v>
+        <v>827</v>
       </c>
       <c r="H15" t="s">
         <v>349</v>
@@ -8648,7 +8867,7 @@
         <v>326</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AG15" si="1">COUNTIF(N15:AF15,"X")</f>
         <v>3</v>
       </c>
     </row>
@@ -8660,31 +8879,31 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>219</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>826</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="G16" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H16" t="s">
-        <v>314</v>
+        <v>828</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="L16" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s">
         <v>181</v>
@@ -8708,28 +8927,28 @@
         <v>326</v>
       </c>
       <c r="T16" t="s">
+        <v>326</v>
+      </c>
+      <c r="U16" t="s">
+        <v>326</v>
+      </c>
+      <c r="V16" t="s">
+        <v>326</v>
+      </c>
+      <c r="W16" t="s">
+        <v>326</v>
+      </c>
+      <c r="X16" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z16" t="s">
         <v>290</v>
       </c>
-      <c r="U16" t="s">
-        <v>326</v>
-      </c>
-      <c r="V16" t="s">
-        <v>326</v>
-      </c>
-      <c r="W16" t="s">
-        <v>326</v>
-      </c>
-      <c r="X16" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>326</v>
-      </c>
       <c r="AA16" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="AB16" t="s">
         <v>326</v>
@@ -8739,13 +8958,16 @@
       </c>
       <c r="AD16" t="s">
         <v>326</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>290</v>
       </c>
       <c r="AF16" t="s">
         <v>326</v>
       </c>
       <c r="AG16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
@@ -8756,31 +8978,34 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>219</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H17" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
         <v>75</v>
       </c>
       <c r="L17" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="M17" t="s">
+        <v>181</v>
       </c>
       <c r="N17" t="s">
         <v>326</v>
@@ -8833,15 +9058,12 @@
       <c r="AD17" t="s">
         <v>326</v>
       </c>
-      <c r="AE17" t="s">
-        <v>290</v>
-      </c>
       <c r="AF17" t="s">
         <v>326</v>
       </c>
       <c r="AG17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
@@ -8849,53 +9071,56 @@
         <v>688</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>350</v>
       </c>
       <c r="G18" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="H18" t="s">
-        <v>237</v>
+        <v>351</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>75</v>
+      </c>
+      <c r="L18" t="s">
+        <v>221</v>
       </c>
       <c r="N18" t="s">
         <v>326</v>
       </c>
       <c r="O18" t="s">
+        <v>326</v>
+      </c>
+      <c r="P18" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>326</v>
+      </c>
+      <c r="R18" t="s">
+        <v>326</v>
+      </c>
+      <c r="S18" t="s">
+        <v>326</v>
+      </c>
+      <c r="T18" t="s">
         <v>290</v>
       </c>
-      <c r="P18" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>326</v>
-      </c>
-      <c r="R18" t="s">
-        <v>326</v>
-      </c>
-      <c r="S18" t="s">
-        <v>326</v>
-      </c>
-      <c r="T18" t="s">
-        <v>326</v>
-      </c>
       <c r="U18" t="s">
         <v>326</v>
       </c>
@@ -8925,13 +9150,16 @@
       </c>
       <c r="AD18" t="s">
         <v>326</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>290</v>
       </c>
       <c r="AF18" t="s">
         <v>326</v>
       </c>
       <c r="AG18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
@@ -8942,37 +9170,37 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>217</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H19" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K19" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N19" t="s">
         <v>326</v>
       </c>
       <c r="O19" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="P19" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="Q19" t="s">
         <v>326</v>
@@ -9032,28 +9260,28 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H20" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N20" t="s">
         <v>326</v>
@@ -9062,7 +9290,7 @@
         <v>326</v>
       </c>
       <c r="P20" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="Q20" t="s">
         <v>326</v>
@@ -9089,7 +9317,7 @@
         <v>326</v>
       </c>
       <c r="Y20" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="Z20" t="s">
         <v>326</v>
@@ -9122,25 +9350,25 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>217</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s">
         <v>38</v>
@@ -9212,28 +9440,28 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>217</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H22" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I22" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="K22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N22" t="s">
         <v>326</v>
@@ -9242,34 +9470,34 @@
         <v>326</v>
       </c>
       <c r="P22" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>326</v>
+      </c>
+      <c r="R22" t="s">
+        <v>326</v>
+      </c>
+      <c r="S22" t="s">
+        <v>326</v>
+      </c>
+      <c r="T22" t="s">
+        <v>326</v>
+      </c>
+      <c r="U22" t="s">
+        <v>326</v>
+      </c>
+      <c r="V22" t="s">
+        <v>326</v>
+      </c>
+      <c r="W22" t="s">
+        <v>326</v>
+      </c>
+      <c r="X22" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y22" t="s">
         <v>290</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>326</v>
-      </c>
-      <c r="R22" t="s">
-        <v>326</v>
-      </c>
-      <c r="S22" t="s">
-        <v>326</v>
-      </c>
-      <c r="T22" t="s">
-        <v>326</v>
-      </c>
-      <c r="U22" t="s">
-        <v>326</v>
-      </c>
-      <c r="V22" t="s">
-        <v>326</v>
-      </c>
-      <c r="W22" t="s">
-        <v>326</v>
-      </c>
-      <c r="X22" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>326</v>
       </c>
       <c r="Z22" t="s">
         <v>326</v>
@@ -9302,37 +9530,37 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>217</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="H23" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N23" t="s">
         <v>326</v>
       </c>
       <c r="O23" t="s">
+        <v>326</v>
+      </c>
+      <c r="P23" t="s">
         <v>290</v>
-      </c>
-      <c r="P23" t="s">
-        <v>326</v>
       </c>
       <c r="Q23" t="s">
         <v>326</v>
@@ -9389,40 +9617,37 @@
         <v>688</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>335</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="H24" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="I24" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="K24" t="s">
-        <v>167</v>
-      </c>
-      <c r="M24" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="N24" t="s">
+        <v>326</v>
+      </c>
+      <c r="O24" t="s">
         <v>290</v>
-      </c>
-      <c r="O24" t="s">
-        <v>326</v>
       </c>
       <c r="P24" t="s">
         <v>326</v>
@@ -9485,34 +9710,34 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>224</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H25" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="I25" t="s">
-        <v>390</v>
+        <v>146</v>
       </c>
       <c r="K25" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M25" t="s">
-        <v>389</v>
+        <v>181</v>
       </c>
       <c r="N25" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="O25" t="s">
         <v>326</v>
@@ -9539,7 +9764,7 @@
         <v>326</v>
       </c>
       <c r="W25" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="X25" t="s">
         <v>326</v>
@@ -9578,28 +9803,28 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
         <v>224</v>
       </c>
       <c r="E26" t="s">
-        <v>414</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>691</v>
+        <v>333</v>
       </c>
       <c r="G26" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H26" t="s">
-        <v>395</v>
+        <v>301</v>
       </c>
       <c r="I26" t="s">
         <v>390</v>
       </c>
       <c r="K26" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M26" t="s">
         <v>389</v>
@@ -9629,10 +9854,10 @@
         <v>326</v>
       </c>
       <c r="V26" t="s">
+        <v>326</v>
+      </c>
+      <c r="W26" t="s">
         <v>290</v>
-      </c>
-      <c r="W26" t="s">
-        <v>326</v>
       </c>
       <c r="X26" t="s">
         <v>326</v>
@@ -9671,28 +9896,28 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
         <v>224</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>414</v>
       </c>
       <c r="F27" t="s">
-        <v>391</v>
+        <v>691</v>
       </c>
       <c r="G27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I27" t="s">
         <v>390</v>
       </c>
       <c r="K27" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M27" t="s">
         <v>389</v>
@@ -9764,28 +9989,28 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G28" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I28" t="s">
         <v>390</v>
       </c>
       <c r="K28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M28" t="s">
         <v>389</v>
@@ -9857,25 +10082,28 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>224</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G29" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I29" t="s">
         <v>390</v>
+      </c>
+      <c r="K29" t="s">
+        <v>160</v>
       </c>
       <c r="M29" t="s">
         <v>389</v>
@@ -9947,31 +10175,28 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>224</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="F30" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="G30" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="H30" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="I30" t="s">
-        <v>353</v>
-      </c>
-      <c r="K30" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="M30" t="s">
-        <v>180</v>
+        <v>389</v>
       </c>
       <c r="N30" t="s">
         <v>326</v>
@@ -10024,13 +10249,11 @@
       <c r="AD30" t="s">
         <v>326</v>
       </c>
-      <c r="AE30" t="s">
-        <v>290</v>
-      </c>
       <c r="AF30" t="s">
         <v>326</v>
       </c>
       <c r="AG30">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -10042,62 +10265,59 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
         <v>224</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="F31" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="G31" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="H31" t="s">
-        <v>296</v>
+        <v>361</v>
       </c>
       <c r="I31" t="s">
-        <v>149</v>
+        <v>353</v>
       </c>
       <c r="K31" t="s">
-        <v>167</v>
-      </c>
-      <c r="L31" t="s">
-        <v>168</v>
+        <v>354</v>
       </c>
       <c r="M31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N31" t="s">
+        <v>326</v>
+      </c>
+      <c r="O31" t="s">
+        <v>326</v>
+      </c>
+      <c r="P31" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>326</v>
+      </c>
+      <c r="R31" t="s">
+        <v>326</v>
+      </c>
+      <c r="S31" t="s">
+        <v>326</v>
+      </c>
+      <c r="T31" t="s">
+        <v>326</v>
+      </c>
+      <c r="U31" t="s">
+        <v>326</v>
+      </c>
+      <c r="V31" t="s">
         <v>290</v>
       </c>
-      <c r="O31" t="s">
-        <v>326</v>
-      </c>
-      <c r="P31" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>326</v>
-      </c>
-      <c r="R31" t="s">
-        <v>326</v>
-      </c>
-      <c r="S31" t="s">
-        <v>326</v>
-      </c>
-      <c r="T31" t="s">
-        <v>326</v>
-      </c>
-      <c r="U31" t="s">
-        <v>326</v>
-      </c>
-      <c r="V31" t="s">
-        <v>326</v>
-      </c>
       <c r="W31" t="s">
         <v>326</v>
       </c>
@@ -10122,11 +10342,13 @@
       <c r="AD31" t="s">
         <v>326</v>
       </c>
+      <c r="AE31" t="s">
+        <v>290</v>
+      </c>
       <c r="AF31" t="s">
         <v>326</v>
       </c>
       <c r="AG31">
-        <f t="shared" ref="AG31:AG42" si="1">COUNTIF(N31:AF31,"X")</f>
         <v>1</v>
       </c>
     </row>
@@ -10138,34 +10360,37 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
         <v>224</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="F32" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G32" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H32" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I32" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="K32" t="s">
-        <v>117</v>
+        <v>167</v>
+      </c>
+      <c r="L32" t="s">
+        <v>168</v>
       </c>
       <c r="M32" t="s">
         <v>181</v>
       </c>
       <c r="N32" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="O32" t="s">
         <v>326</v>
@@ -10210,7 +10435,7 @@
         <v>326</v>
       </c>
       <c r="AC32" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="AD32" t="s">
         <v>326</v>
@@ -10219,7 +10444,7 @@
         <v>326</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AG32:AG43" si="2">COUNTIF(N32:AF32,"X")</f>
         <v>1</v>
       </c>
     </row>
@@ -10231,31 +10456,28 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
         <v>224</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" t="s">
-        <v>112</v>
+        <v>334</v>
       </c>
       <c r="G33" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="H33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K33" t="s">
-        <v>119</v>
-      </c>
-      <c r="L33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M33" t="s">
         <v>181</v>
@@ -10315,7 +10537,7 @@
         <v>326</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10324,34 +10546,37 @@
         <v>688</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="G34" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="H34" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I34" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="L34" t="s">
-        <v>69</v>
+        <v>118</v>
+      </c>
+      <c r="M34" t="s">
+        <v>181</v>
       </c>
       <c r="N34" t="s">
         <v>326</v>
@@ -10396,11 +10621,11 @@
         <v>326</v>
       </c>
       <c r="AB34" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC34" t="s">
         <v>290</v>
       </c>
-      <c r="AC34" t="s">
-        <v>326</v>
-      </c>
       <c r="AD34" t="s">
         <v>326</v>
       </c>
@@ -10408,7 +10633,7 @@
         <v>326</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10420,34 +10645,31 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>218</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="H35" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I35" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="K35" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="L35" t="s">
-        <v>88</v>
-      </c>
-      <c r="M35" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="N35" t="s">
         <v>326</v>
@@ -10477,23 +10699,23 @@
         <v>326</v>
       </c>
       <c r="W35" t="s">
+        <v>326</v>
+      </c>
+      <c r="X35" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB35" t="s">
         <v>290</v>
       </c>
-      <c r="X35" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>326</v>
-      </c>
       <c r="AC35" t="s">
         <v>326</v>
       </c>
@@ -10504,7 +10726,7 @@
         <v>326</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10516,28 +10738,34 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
         <v>218</v>
       </c>
       <c r="E36" t="s">
-        <v>309</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s">
-        <v>337</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="H36" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>90</v>
+      </c>
+      <c r="K36" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" t="s">
+        <v>88</v>
       </c>
       <c r="M36" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="N36" t="s">
         <v>326</v>
@@ -10567,10 +10795,10 @@
         <v>326</v>
       </c>
       <c r="W36" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="X36" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s">
         <v>326</v>
@@ -10594,7 +10822,7 @@
         <v>326</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10606,31 +10834,28 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
         <v>218</v>
       </c>
       <c r="E37" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F37" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G37" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="H37" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I37" t="s">
-        <v>97</v>
-      </c>
-      <c r="K37" t="s">
-        <v>98</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="N37" t="s">
         <v>326</v>
@@ -10687,7 +10912,7 @@
         <v>326</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10699,28 +10924,31 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
         <v>218</v>
       </c>
       <c r="E38" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F38" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G38" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="H38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I38" t="s">
-        <v>312</v>
+        <v>97</v>
+      </c>
+      <c r="K38" t="s">
+        <v>98</v>
       </c>
       <c r="M38" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="N38" t="s">
         <v>326</v>
@@ -10777,7 +11005,7 @@
         <v>326</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10789,31 +11017,28 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
         <v>218</v>
       </c>
       <c r="E39" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F39" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H39" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I39" t="s">
-        <v>94</v>
-      </c>
-      <c r="K39" t="s">
-        <v>98</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="N39" t="s">
         <v>326</v>
@@ -10870,7 +11095,7 @@
         <v>326</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10882,31 +11107,31 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
         <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>303</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>340</v>
       </c>
       <c r="G40" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H40" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s">
-        <v>67</v>
-      </c>
-      <c r="L40" t="s">
-        <v>70</v>
+        <v>98</v>
+      </c>
+      <c r="M40" t="s">
+        <v>181</v>
       </c>
       <c r="N40" t="s">
         <v>326</v>
@@ -10939,7 +11164,7 @@
         <v>326</v>
       </c>
       <c r="X40" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="Y40" t="s">
         <v>326</v>
@@ -10951,7 +11176,7 @@
         <v>326</v>
       </c>
       <c r="AB40" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="AC40" t="s">
         <v>326</v>
@@ -10963,7 +11188,7 @@
         <v>326</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10975,28 +11200,31 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
         <v>218</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H41" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="I41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="L41" t="s">
+        <v>70</v>
       </c>
       <c r="N41" t="s">
         <v>326</v>
@@ -11011,38 +11239,38 @@
         <v>326</v>
       </c>
       <c r="R41" t="s">
+        <v>326</v>
+      </c>
+      <c r="S41" t="s">
+        <v>326</v>
+      </c>
+      <c r="T41" t="s">
+        <v>326</v>
+      </c>
+      <c r="U41" t="s">
+        <v>326</v>
+      </c>
+      <c r="V41" t="s">
+        <v>326</v>
+      </c>
+      <c r="W41" t="s">
+        <v>326</v>
+      </c>
+      <c r="X41" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB41" t="s">
         <v>290</v>
       </c>
-      <c r="S41" t="s">
-        <v>326</v>
-      </c>
-      <c r="T41" t="s">
-        <v>326</v>
-      </c>
-      <c r="U41" t="s">
-        <v>326</v>
-      </c>
-      <c r="V41" t="s">
-        <v>326</v>
-      </c>
-      <c r="W41" t="s">
-        <v>326</v>
-      </c>
-      <c r="X41" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>326</v>
-      </c>
       <c r="AC41" t="s">
         <v>326</v>
       </c>
@@ -11053,7 +11281,7 @@
         <v>326</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -11062,44 +11290,47 @@
         <v>688</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>278</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>342</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H42" t="s">
-        <v>279</v>
-      </c>
-      <c r="M42" t="s">
-        <v>389</v>
+        <v>239</v>
+      </c>
+      <c r="I42" t="s">
+        <v>53</v>
+      </c>
+      <c r="K42" t="s">
+        <v>54</v>
       </c>
       <c r="N42" t="s">
+        <v>326</v>
+      </c>
+      <c r="O42" t="s">
+        <v>326</v>
+      </c>
+      <c r="P42" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>326</v>
+      </c>
+      <c r="R42" t="s">
         <v>290</v>
       </c>
-      <c r="O42" t="s">
-        <v>326</v>
-      </c>
-      <c r="P42" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>326</v>
-      </c>
-      <c r="R42" t="s">
-        <v>326</v>
-      </c>
       <c r="S42" t="s">
         <v>326</v>
       </c>
@@ -11140,7 +11371,7 @@
         <v>326</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -11152,28 +11383,83 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
         <v>226</v>
       </c>
       <c r="E43" t="s">
-        <v>409</v>
+        <v>278</v>
       </c>
       <c r="F43" t="s">
-        <v>410</v>
+        <v>342</v>
       </c>
       <c r="G43" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="H43" t="s">
-        <v>411</v>
-      </c>
-      <c r="I43" t="s">
-        <v>390</v>
+        <v>279</v>
       </c>
       <c r="M43" t="s">
         <v>389</v>
+      </c>
+      <c r="N43" t="s">
+        <v>290</v>
+      </c>
+      <c r="O43" t="s">
+        <v>326</v>
+      </c>
+      <c r="P43" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>326</v>
+      </c>
+      <c r="R43" t="s">
+        <v>326</v>
+      </c>
+      <c r="S43" t="s">
+        <v>326</v>
+      </c>
+      <c r="T43" t="s">
+        <v>326</v>
+      </c>
+      <c r="U43" t="s">
+        <v>326</v>
+      </c>
+      <c r="V43" t="s">
+        <v>326</v>
+      </c>
+      <c r="W43" t="s">
+        <v>326</v>
+      </c>
+      <c r="X43" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
@@ -11184,22 +11470,22 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
         <v>226</v>
       </c>
       <c r="E44" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F44" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G44" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="H44" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="I44" t="s">
         <v>390</v>
@@ -11216,22 +11502,22 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
         <v>226</v>
       </c>
       <c r="E45" t="s">
-        <v>266</v>
+        <v>406</v>
       </c>
       <c r="F45" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G45" t="s">
-        <v>716</v>
+        <v>811</v>
       </c>
       <c r="H45" t="s">
-        <v>267</v>
+        <v>408</v>
       </c>
       <c r="I45" t="s">
         <v>390</v>
@@ -11248,22 +11534,22 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
         <v>226</v>
       </c>
       <c r="E46" t="s">
-        <v>398</v>
+        <v>266</v>
       </c>
       <c r="F46" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="G46" t="s">
-        <v>812</v>
+        <v>716</v>
       </c>
       <c r="H46" t="s">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="I46" t="s">
         <v>390</v>
@@ -11280,89 +11566,28 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
         <v>226</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>398</v>
       </c>
       <c r="F47" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="G47" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="H47" t="s">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="I47" t="s">
-        <v>166</v>
-      </c>
-      <c r="K47" t="s">
-        <v>173</v>
+        <v>390</v>
       </c>
       <c r="M47" t="s">
-        <v>181</v>
-      </c>
-      <c r="N47" t="s">
-        <v>290</v>
-      </c>
-      <c r="O47" t="s">
-        <v>326</v>
-      </c>
-      <c r="P47" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>326</v>
-      </c>
-      <c r="R47" t="s">
-        <v>326</v>
-      </c>
-      <c r="S47" t="s">
-        <v>326</v>
-      </c>
-      <c r="T47" t="s">
-        <v>326</v>
-      </c>
-      <c r="U47" t="s">
-        <v>326</v>
-      </c>
-      <c r="V47" t="s">
-        <v>326</v>
-      </c>
-      <c r="W47" t="s">
-        <v>326</v>
-      </c>
-      <c r="X47" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG47">
-        <f>COUNTIF(N47:AF47,"X")</f>
-        <v>1</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
@@ -11373,28 +11598,89 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
         <v>226</v>
       </c>
       <c r="E48" t="s">
-        <v>401</v>
+        <v>164</v>
       </c>
       <c r="F48" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="G48" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="H48" t="s">
-        <v>403</v>
+        <v>251</v>
       </c>
       <c r="I48" t="s">
-        <v>390</v>
+        <v>166</v>
+      </c>
+      <c r="K48" t="s">
+        <v>173</v>
       </c>
       <c r="M48" t="s">
-        <v>389</v>
+        <v>181</v>
+      </c>
+      <c r="N48" t="s">
+        <v>290</v>
+      </c>
+      <c r="O48" t="s">
+        <v>326</v>
+      </c>
+      <c r="P48" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>326</v>
+      </c>
+      <c r="R48" t="s">
+        <v>326</v>
+      </c>
+      <c r="S48" t="s">
+        <v>326</v>
+      </c>
+      <c r="T48" t="s">
+        <v>326</v>
+      </c>
+      <c r="U48" t="s">
+        <v>326</v>
+      </c>
+      <c r="V48" t="s">
+        <v>326</v>
+      </c>
+      <c r="W48" t="s">
+        <v>326</v>
+      </c>
+      <c r="X48" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG48">
+        <f>COUNTIF(N48:AF48,"X")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
@@ -11405,22 +11691,22 @@
         <v>6</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
         <v>226</v>
       </c>
       <c r="E49" t="s">
-        <v>264</v>
+        <v>401</v>
       </c>
       <c r="F49" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G49" t="s">
-        <v>737</v>
+        <v>813</v>
       </c>
       <c r="H49" t="s">
-        <v>265</v>
+        <v>403</v>
       </c>
       <c r="I49" t="s">
         <v>390</v>
@@ -11434,92 +11720,31 @@
         <v>688</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>405</v>
       </c>
       <c r="G50" t="s">
-        <v>816</v>
+        <v>737</v>
       </c>
       <c r="H50" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="I50" t="s">
-        <v>105</v>
-      </c>
-      <c r="K50" t="s">
-        <v>106</v>
+        <v>390</v>
       </c>
       <c r="M50" t="s">
-        <v>181</v>
-      </c>
-      <c r="N50" t="s">
-        <v>326</v>
-      </c>
-      <c r="O50" t="s">
-        <v>326</v>
-      </c>
-      <c r="P50" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>326</v>
-      </c>
-      <c r="R50" t="s">
-        <v>326</v>
-      </c>
-      <c r="S50" t="s">
-        <v>326</v>
-      </c>
-      <c r="T50" t="s">
-        <v>326</v>
-      </c>
-      <c r="U50" t="s">
-        <v>290</v>
-      </c>
-      <c r="V50" t="s">
-        <v>326</v>
-      </c>
-      <c r="W50" t="s">
-        <v>326</v>
-      </c>
-      <c r="X50" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG50">
-        <f>COUNTIF(N50:AF50,"X")</f>
-        <v>1</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
@@ -11530,28 +11755,28 @@
         <v>7</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
         <v>225</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F51" t="s">
-        <v>343</v>
+        <v>104</v>
       </c>
       <c r="G51" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I51" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K51" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M51" t="s">
         <v>181</v>
@@ -11620,31 +11845,34 @@
         <v>688</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="E52" t="s">
-        <v>318</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G52" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H52" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="I52" t="s">
-        <v>320</v>
+        <v>102</v>
       </c>
       <c r="K52" t="s">
-        <v>319</v>
+        <v>100</v>
+      </c>
+      <c r="M52" t="s">
+        <v>181</v>
       </c>
       <c r="N52" t="s">
         <v>326</v>
@@ -11668,7 +11896,7 @@
         <v>326</v>
       </c>
       <c r="U52" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="V52" t="s">
         <v>326</v>
@@ -11695,13 +11923,103 @@
         <v>326</v>
       </c>
       <c r="AD52" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="AF52" t="s">
         <v>326</v>
       </c>
       <c r="AG52">
         <f>COUNTIF(N52:AF52,"X")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>688</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>316</v>
+      </c>
+      <c r="E53" t="s">
+        <v>318</v>
+      </c>
+      <c r="F53" t="s">
+        <v>344</v>
+      </c>
+      <c r="G53" t="s">
+        <v>817</v>
+      </c>
+      <c r="H53" t="s">
+        <v>317</v>
+      </c>
+      <c r="I53" t="s">
+        <v>320</v>
+      </c>
+      <c r="K53" t="s">
+        <v>319</v>
+      </c>
+      <c r="N53" t="s">
+        <v>326</v>
+      </c>
+      <c r="O53" t="s">
+        <v>326</v>
+      </c>
+      <c r="P53" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>326</v>
+      </c>
+      <c r="R53" t="s">
+        <v>326</v>
+      </c>
+      <c r="S53" t="s">
+        <v>326</v>
+      </c>
+      <c r="T53" t="s">
+        <v>326</v>
+      </c>
+      <c r="U53" t="s">
+        <v>326</v>
+      </c>
+      <c r="V53" t="s">
+        <v>326</v>
+      </c>
+      <c r="W53" t="s">
+        <v>326</v>
+      </c>
+      <c r="X53" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG53">
+        <f>COUNTIF(N53:AF53,"X")</f>
         <v>1</v>
       </c>
     </row>
@@ -11718,7 +12036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
@@ -14621,9 +14939,9 @@
       <c r="B42" t="s">
         <v>124</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42" t="e">
         <f t="shared" si="1"/>
-        <v>precision</v>
+        <v>#N/A</v>
       </c>
       <c r="D42" t="s">
         <v>83</v>
@@ -14653,7 +14971,7 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
-        <v>recall</v>
+        <v>true_positive_raate</v>
       </c>
       <c r="D44" t="s">
         <v>83</v>
@@ -14876,9 +15194,9 @@
       <c r="B59" t="s">
         <v>124</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C59" t="e">
         <f t="shared" si="1"/>
-        <v>precision</v>
+        <v>#N/A</v>
       </c>
       <c r="D59" t="s">
         <v>620</v>
@@ -14908,7 +15226,7 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" si="1"/>
-        <v>recall</v>
+        <v>true_positive_raate</v>
       </c>
       <c r="D61" t="s">
         <v>620</v>
@@ -15356,9 +15674,9 @@
       <c r="B91" t="s">
         <v>124</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C91" t="e">
         <f t="shared" si="2"/>
-        <v>precision</v>
+        <v>#N/A</v>
       </c>
       <c r="D91" t="s">
         <v>682</v>
@@ -15373,7 +15691,7 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" si="2"/>
-        <v>recall</v>
+        <v>true_positive_raate</v>
       </c>
       <c r="D92" t="s">
         <v>682</v>
@@ -15431,9 +15749,9 @@
       <c r="B96" t="s">
         <v>124</v>
       </c>
-      <c r="C96" t="str">
+      <c r="C96" t="e">
         <f t="shared" si="2"/>
-        <v>precision</v>
+        <v>#N/A</v>
       </c>
       <c r="D96" t="s">
         <v>680</v>
@@ -15626,9 +15944,9 @@
       <c r="B109" t="s">
         <v>124</v>
       </c>
-      <c r="C109" t="str">
+      <c r="C109" t="e">
         <f t="shared" si="3"/>
-        <v>precision</v>
+        <v>#N/A</v>
       </c>
       <c r="D109" t="s">
         <v>630</v>
@@ -15658,7 +15976,7 @@
       </c>
       <c r="C111" t="str">
         <f t="shared" si="3"/>
-        <v>recall</v>
+        <v>true_positive_raate</v>
       </c>
       <c r="D111" t="s">
         <v>630</v>
@@ -15988,7 +16306,7 @@
       </c>
       <c r="C133" t="str">
         <f t="shared" si="4"/>
-        <v>average_positive_predicive_value</v>
+        <v>positive_predictive_value</v>
       </c>
       <c r="D133" t="s">
         <v>83</v>
@@ -16138,7 +16456,7 @@
       </c>
       <c r="C143" t="str">
         <f t="shared" si="4"/>
-        <v>average_positive_predicive_value</v>
+        <v>positive_predictive_value</v>
       </c>
       <c r="D143" t="s">
         <v>620</v>
@@ -16303,7 +16621,7 @@
       </c>
       <c r="C154" t="str">
         <f t="shared" si="5"/>
-        <v>average_positive_predicive_value</v>
+        <v>positive_predictive_value</v>
       </c>
       <c r="D154" t="s">
         <v>682</v>
@@ -16378,7 +16696,7 @@
       </c>
       <c r="C159" t="str">
         <f t="shared" si="5"/>
-        <v>average_positive_predicive_value</v>
+        <v>positive_predictive_value</v>
       </c>
       <c r="D159" t="s">
         <v>680</v>
@@ -16498,7 +16816,7 @@
       </c>
       <c r="C167" t="str">
         <f t="shared" si="5"/>
-        <v>average_positive_predicive_value</v>
+        <v>positive_predictive_value</v>
       </c>
       <c r="D167" t="s">
         <v>630</v>
